--- a/doc/registry/KeyMappingI v10 (Apple WiressKeyboard).xlsx
+++ b/doc/registry/KeyMappingI v10 (Apple WiressKeyboard).xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADC0B50-95E0-4130-9CD0-11AD4E3796C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18420" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="7455" yWindow="645" windowWidth="18885" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scancode Map" sheetId="1" r:id="rId1"/>
     <sheet name="KeyList" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -837,7 +846,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1234,7 +1243,7 @@
         <xdr:cNvPr id="2" name="右矢印 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,6 +1364,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1390,6 +1416,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1565,10 +1608,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:J31"/>
     </sheetView>
   </sheetViews>
@@ -1847,19 +1890,19 @@
         <v>Windows(右)</v>
       </c>
       <c r="G9" s="8">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="H9" s="12" t="str">
         <f>IF(ISERROR(VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$136,2,FALSE))</f>
-        <v>0x65</v>
+        <v>0x70</v>
       </c>
       <c r="I9" s="10" t="str">
         <f>IF(ISERROR(VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$136,3,FALSE))</f>
-        <v>F14</v>
+        <v>かな</v>
       </c>
       <c r="J9" s="10" t="str">
         <f>IF(ISERROR(VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$136,4,FALSE))</f>
-        <v>-</v>
+        <v>カタカナ・ひらがな・ローマ字</v>
       </c>
       <c r="L9" s="21" t="str">
         <f>IF(ISERROR(VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$E$136,5,FALSE))</f>
@@ -1867,11 +1910,11 @@
       </c>
       <c r="M9" s="21" t="str">
         <f>IF(ISERROR(VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$E$136,5,FALSE))</f>
-        <v>,65,00</v>
+        <v>,70,00</v>
       </c>
       <c r="N9" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>,65,00,5c,e0</v>
+        <v>,70,00,5c,e0</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -2359,7 +2402,7 @@
     <row r="31" spans="2:14" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="25" t="str">
         <f>L21 &amp; "00,00,00,00,00,00,00,00" &amp; M20 &amp; CONCATENATE(N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19) &amp; ",00,00,00,00"</f>
-        <v>"Scancode Map"=hex:00,00,00,00,00,00,00,00,07,00,00,00,1d,00,3a,00,5b,e0,38,00,38,00,5b,e0,64,00,1d,00,65,00,5c,e0,66,00,70,00,00,00,00,00</v>
+        <v>"Scancode Map"=hex:00,00,00,00,00,00,00,00,07,00,00,00,1d,00,3a,00,5b,e0,38,00,38,00,5b,e0,64,00,1d,00,70,00,5c,e0,66,00,70,00,00,00,00,00</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
@@ -2404,11 +2447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3236,7 +3279,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1"/>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/registry/KeyMappingI v10 (Apple WiressKeyboard).xlsx
+++ b/doc/registry/KeyMappingI v10 (Apple WiressKeyboard).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADC0B50-95E0-4130-9CD0-11AD4E3796C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814CC2B9-9FF6-4CF0-BFB9-8F2014B2FB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="645" windowWidth="18885" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13740" yWindow="1200" windowWidth="21435" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scancode Map" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="174">
   <si>
     <t>CapsLock</t>
     <phoneticPr fontId="2"/>
@@ -835,11 +835,54 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>,0C,00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UnderScore</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0x73</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>,73,00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0x67</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>,67,00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BracketsR</t>
+  </si>
+  <si>
+    <t>0x1B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BracketsL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0x2B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>,1B,00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>,2B,00</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1611,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:J31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B28:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1702,38 +1745,38 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v>0x3A</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$D$136,3,TRUE)),"",VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$D$144,3,TRUE)),"",VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v>CapsLock</v>
       </c>
       <c r="E5" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$D$136,4,TRUE)),"",VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$D$144,4,TRUE)),"",VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v>CapsLock</v>
       </c>
       <c r="G5" s="7">
         <v>8</v>
       </c>
       <c r="H5" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v>0x1D</v>
       </c>
       <c r="I5" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v>control</v>
       </c>
       <c r="J5" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v>Ctrl(左)</v>
       </c>
       <c r="L5" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B5,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v>,3a,00</v>
       </c>
       <c r="M5" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G5,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v>,1d,00</v>
       </c>
       <c r="N5" s="21" t="str">
@@ -1746,38 +1789,38 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v>0x38</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v>option(左)</v>
       </c>
       <c r="E6" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v>Alt(左)</v>
       </c>
       <c r="G6" s="8">
         <v>6</v>
       </c>
       <c r="H6" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v>0xE05B</v>
       </c>
       <c r="I6" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v>command(左)</v>
       </c>
       <c r="J6" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v>Windows(左)</v>
       </c>
       <c r="L6" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B6,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v>,38,00</v>
       </c>
       <c r="M6" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G6,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v>,5b,e0</v>
       </c>
       <c r="N6" s="21" t="str">
@@ -1790,38 +1833,38 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v>0xE05B</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v>command(左)</v>
       </c>
       <c r="E7" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v>Windows(左)</v>
       </c>
       <c r="G7" s="8">
         <v>2</v>
       </c>
       <c r="H7" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v>0x38</v>
       </c>
       <c r="I7" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v>option(左)</v>
       </c>
       <c r="J7" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v>Alt(左)</v>
       </c>
       <c r="L7" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B7,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v>,5b,e0</v>
       </c>
       <c r="M7" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G7,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v>,38,00</v>
       </c>
       <c r="N7" s="21" t="str">
@@ -1834,43 +1877,43 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v>0x1D</v>
       </c>
       <c r="D8" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v>control</v>
       </c>
       <c r="E8" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v>Ctrl(左)</v>
       </c>
       <c r="G8" s="8">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="H8" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$D$136,2,FALSE))</f>
-        <v>0x64</v>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$D$144,2,FALSE))</f>
+        <v>0x0F</v>
       </c>
       <c r="I8" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$D$136,3,FALSE))</f>
-        <v>F13</v>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$D$144,3,FALSE))</f>
+        <v>tab</v>
       </c>
       <c r="J8" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v>-</v>
       </c>
       <c r="L8" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B8,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v>,1d,00</v>
       </c>
       <c r="M8" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$E$136,5,FALSE))</f>
-        <v>,64,00</v>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G8,KeyList!$A$3:$E$144,5,FALSE))</f>
+        <v>,0F,00</v>
       </c>
       <c r="N8" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>,64,00,1d,00</v>
+        <v>,0f,00,1d,00</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -1878,38 +1921,38 @@
         <v>7</v>
       </c>
       <c r="C9" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v>0xE05C</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v>command(右)</v>
       </c>
       <c r="E9" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v>Windows(右)</v>
       </c>
       <c r="G9" s="8">
         <v>4</v>
       </c>
       <c r="H9" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v>0x70</v>
       </c>
       <c r="I9" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v>かな</v>
       </c>
       <c r="J9" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v>カタカナ・ひらがな・ローマ字</v>
       </c>
       <c r="L9" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B9,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v>,5c,e0</v>
       </c>
       <c r="M9" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G9,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v>,70,00</v>
       </c>
       <c r="N9" s="21" t="str">
@@ -1922,38 +1965,38 @@
         <v>4</v>
       </c>
       <c r="C10" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v>0x70</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v>かな</v>
       </c>
       <c r="E10" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v>カタカナ・ひらがな・ローマ字</v>
       </c>
       <c r="G10" s="23">
         <v>40</v>
       </c>
       <c r="H10" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v>0x66</v>
       </c>
       <c r="I10" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v>F15</v>
       </c>
       <c r="J10" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v>-</v>
       </c>
       <c r="L10" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B10,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v>,70,00</v>
       </c>
       <c r="M10" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G10,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v>,66,00</v>
       </c>
       <c r="N10" s="21" t="str">
@@ -1962,238 +2005,258 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
+      <c r="B11" s="8">
+        <v>42</v>
+      </c>
       <c r="C11" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$D$136,2,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$D$144,2,FALSE))</f>
+        <v>0x73</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$D$136,3,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$D$144,3,FALSE))</f>
+        <v>-</v>
       </c>
       <c r="E11" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$D$136,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G11" s="8"/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$D$144,4,FALSE))</f>
+        <v>UnderScore</v>
+      </c>
+      <c r="G11" s="8">
+        <v>43</v>
+      </c>
       <c r="H11" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$D$136,2,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$D$144,2,FALSE))</f>
+        <v>0x67</v>
       </c>
       <c r="I11" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$D$136,3,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$D$144,3,FALSE))</f>
+        <v>F16</v>
       </c>
       <c r="J11" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$D$136,4,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$D$144,4,FALSE))</f>
+        <v>-</v>
       </c>
       <c r="L11" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$E$136,5,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B11,KeyList!$A$3:$E$144,5,FALSE))</f>
+        <v>,73,00</v>
       </c>
       <c r="M11" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$E$136,5,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G11,KeyList!$A$3:$E$144,5,FALSE))</f>
+        <v>,67,00</v>
       </c>
       <c r="N11" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>,67,00,73,00</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
+      <c r="B12" s="8">
+        <v>44</v>
+      </c>
       <c r="C12" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$D$136,2,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$D$144,2,FALSE))</f>
+        <v>0x28</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$D$136,3,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$D$144,3,FALSE))</f>
+        <v>:</v>
       </c>
       <c r="E12" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$D$136,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G12" s="8"/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$D$144,4,FALSE))</f>
+        <v>-</v>
+      </c>
+      <c r="G12" s="8">
+        <v>45</v>
+      </c>
       <c r="H12" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$D$136,2,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$D$144,2,FALSE))</f>
+        <v>0x0C</v>
       </c>
       <c r="I12" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$D$136,3,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$D$144,3,FALSE))</f>
+        <v>-</v>
       </c>
       <c r="J12" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$D$136,4,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$D$144,4,FALSE))</f>
+        <v>-</v>
       </c>
       <c r="L12" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$E$136,5,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B12,KeyList!$A$3:$E$144,5,FALSE))</f>
+        <v>,28,00</v>
       </c>
       <c r="M12" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$E$136,5,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G12,KeyList!$A$3:$E$144,5,FALSE))</f>
+        <v>,0C,00</v>
       </c>
       <c r="N12" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>,0c,00,28,00</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
+      <c r="B13" s="8">
+        <v>12</v>
+      </c>
       <c r="C13" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$D$136,2,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$D$144,2,FALSE))</f>
+        <v>0x0F</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$D$136,3,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$D$144,3,FALSE))</f>
+        <v>tab</v>
       </c>
       <c r="E13" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$D$136,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G13" s="8"/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$D$144,4,FALSE))</f>
+        <v>-</v>
+      </c>
+      <c r="G13" s="8">
+        <v>41</v>
+      </c>
       <c r="H13" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$D$136,2,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$D$144,2,FALSE))</f>
+        <v>0x01</v>
       </c>
       <c r="I13" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$D$136,3,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$D$144,3,FALSE))</f>
+        <v>ESC</v>
       </c>
       <c r="J13" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$D$136,4,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$D$144,4,FALSE))</f>
+        <v>-</v>
       </c>
       <c r="L13" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$E$136,5,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B13,KeyList!$A$3:$E$144,5,FALSE))</f>
+        <v>,0F,00</v>
       </c>
       <c r="M13" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$E$136,5,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G13,KeyList!$A$3:$E$144,5,FALSE))</f>
+        <v>,01,00</v>
       </c>
       <c r="N13" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>,01,00,0f,00</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
+      <c r="B14" s="8">
+        <v>46</v>
+      </c>
       <c r="C14" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$D$136,2,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$D$144,2,FALSE))</f>
+        <v>0x1B</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$D$136,3,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$D$144,3,FALSE))</f>
+        <v>BracketsL</v>
       </c>
       <c r="E14" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$D$136,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G14" s="8"/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$D$144,4,FALSE))</f>
+        <v>-</v>
+      </c>
+      <c r="G14" s="8">
+        <v>6</v>
+      </c>
       <c r="H14" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$D$136,2,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$D$144,2,FALSE))</f>
+        <v>0xE05B</v>
       </c>
       <c r="I14" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$D$136,3,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$D$144,3,FALSE))</f>
+        <v>command(左)</v>
       </c>
       <c r="J14" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$D$136,4,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$D$144,4,FALSE))</f>
+        <v>Windows(左)</v>
       </c>
       <c r="L14" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$E$136,5,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B14,KeyList!$A$3:$E$144,5,FALSE))</f>
+        <v>,1B,00</v>
       </c>
       <c r="M14" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$E$136,5,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G14,KeyList!$A$3:$E$144,5,FALSE))</f>
+        <v>,5b,e0</v>
       </c>
       <c r="N14" s="21" t="str">
         <f t="shared" ref="N14:N19" si="1">LOWER(CONCATENATE(M14,L14))</f>
-        <v/>
+        <v>,5b,e0,1b,00</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
+      <c r="B15" s="8">
+        <v>47</v>
+      </c>
       <c r="C15" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$D$136,2,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$D$144,2,FALSE))</f>
+        <v>0x2B</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$D$136,3,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$D$144,3,FALSE))</f>
+        <v>BracketsR</v>
       </c>
       <c r="E15" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$D$136,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G15" s="8"/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$D$144,4,FALSE))</f>
+        <v>-</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2</v>
+      </c>
       <c r="H15" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$D$136,2,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$D$144,2,FALSE))</f>
+        <v>0x38</v>
       </c>
       <c r="I15" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$D$136,3,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$D$144,3,FALSE))</f>
+        <v>option(左)</v>
       </c>
       <c r="J15" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$D$136,4,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$D$144,4,FALSE))</f>
+        <v>Alt(左)</v>
       </c>
       <c r="L15" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$E$136,5,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B15,KeyList!$A$3:$E$144,5,FALSE))</f>
+        <v>,2B,00</v>
       </c>
       <c r="M15" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$E$136,5,FALSE))</f>
-        <v/>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G15,KeyList!$A$3:$E$144,5,FALSE))</f>
+        <v>,38,00</v>
       </c>
       <c r="N15" s="21" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>,38,00,2b,00</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="23"/>
       <c r="C16" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v/>
       </c>
       <c r="D16" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v/>
       </c>
       <c r="E16" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v/>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v/>
       </c>
       <c r="I16" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v/>
       </c>
       <c r="J16" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v/>
       </c>
       <c r="L16" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B16,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v/>
       </c>
       <c r="M16" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G16,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v/>
       </c>
       <c r="N16" s="21" t="str">
@@ -2204,36 +2267,36 @@
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v/>
       </c>
       <c r="D17" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v/>
       </c>
       <c r="E17" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v/>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v/>
       </c>
       <c r="I17" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v/>
       </c>
       <c r="J17" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v/>
       </c>
       <c r="L17" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B17,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v/>
       </c>
       <c r="M17" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G17,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v/>
       </c>
       <c r="N17" s="21" t="str">
@@ -2244,36 +2307,36 @@
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="23"/>
       <c r="C18" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v/>
       </c>
       <c r="D18" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v/>
       </c>
       <c r="E18" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v/>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v/>
       </c>
       <c r="I18" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v/>
       </c>
       <c r="J18" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v/>
       </c>
       <c r="L18" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B18,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v/>
       </c>
       <c r="M18" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G18,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v/>
       </c>
       <c r="N18" s="21" t="str">
@@ -2284,36 +2347,36 @@
     <row r="19" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="C19" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v/>
       </c>
       <c r="D19" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v/>
       </c>
       <c r="E19" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v/>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$D$136,2,FALSE)),"",VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$D$136,2,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$D$144,2,FALSE)),"",VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$D$144,2,FALSE))</f>
         <v/>
       </c>
       <c r="I19" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$D$136,3,FALSE)),"",VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$D$136,3,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$D$144,3,FALSE)),"",VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$D$144,3,FALSE))</f>
         <v/>
       </c>
       <c r="J19" s="10" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$D$136,4,FALSE)),"",VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$D$136,4,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$D$144,4,FALSE)),"",VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$D$144,4,FALSE))</f>
         <v/>
       </c>
       <c r="L19" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!B19,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v/>
       </c>
       <c r="M19" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$E$136,5,FALSE)),"",VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$E$136,5,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$E$144,5,FALSE)),"",VLOOKUP('Scancode Map'!G19,KeyList!$A$3:$E$144,5,FALSE))</f>
         <v/>
       </c>
       <c r="N19" s="21" t="str">
@@ -2327,11 +2390,11 @@
       </c>
       <c r="L20" s="21">
         <f>COUNT(B5:B19)+1</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M20" s="21" t="str">
         <f>"," &amp;RIGHT("00"&amp;DEC2HEX(L20),2)&amp;",00,00,00"</f>
-        <v>,07,00,00,00</v>
+        <v>,0C,00,00,00</v>
       </c>
       <c r="N20" s="21"/>
     </row>
@@ -2402,7 +2465,7 @@
     <row r="31" spans="2:14" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="25" t="str">
         <f>L21 &amp; "00,00,00,00,00,00,00,00" &amp; M20 &amp; CONCATENATE(N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19) &amp; ",00,00,00,00"</f>
-        <v>"Scancode Map"=hex:00,00,00,00,00,00,00,00,07,00,00,00,1d,00,3a,00,5b,e0,38,00,38,00,5b,e0,64,00,1d,00,70,00,5c,e0,66,00,70,00,00,00,00,00</v>
+        <v>"Scancode Map"=hex:00,00,00,00,00,00,00,00,0C,00,00,00,1d,00,3a,00,5b,e0,38,00,38,00,5b,e0,0f,00,1d,00,70,00,5c,e0,66,00,70,00,67,00,73,00,0c,00,28,00,01,00,0f,00,5b,e0,1b,00,38,00,2b,00,00,00,00,00</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
@@ -2448,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3174,14 +3237,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="E43" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3189,84 +3254,188 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="20"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="6" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+      <c r="B60" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3279,7 +3448,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B60" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
